--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F659F00A-E576-47E8-9F3C-E004C89096F8}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48414F36-FEE0-4EC8-AA1C-2A108A4EAA5B}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,57 +36,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
   <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Registration Deadline</t>
+  </si>
+  <si>
+    <t>Staff In Charge</t>
+  </si>
+  <si>
+    <t>Slots</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Committee Slots</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>Visibility</t>
+  </si>
+  <si>
+    <t>campy</t>
+  </si>
+  <si>
+    <t>ADM</t>
+  </si>
+  <si>
+    <t>SCSE Camp</t>
+  </si>
+  <si>
     <t>SCSE</t>
   </si>
   <si>
-    <t>ADM</t>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>campyy</t>
+  </si>
+  <si>
+    <t>ADM Camp</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>EEE Camp</t>
   </si>
   <si>
     <t>EEE</t>
   </si>
   <si>
+    <t>sadd</t>
+  </si>
+  <si>
+    <t>adsa</t>
+  </si>
+  <si>
+    <t>NBS Camp</t>
+  </si>
+  <si>
     <t>NBS</t>
   </si>
   <si>
-    <t>SSS</t>
-  </si>
-  <si>
-    <t>SCSE Camp</t>
-  </si>
-  <si>
-    <t>ADM Camp</t>
-  </si>
-  <si>
-    <t>EEE Camp</t>
-  </si>
-  <si>
-    <t>NBS Camp</t>
-  </si>
-  <si>
-    <t>SSS Camp</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Registration Deadline</t>
-  </si>
-  <si>
-    <t>Staff In Charge</t>
+    <t>dasdsa</t>
   </si>
   <si>
     <t>sda</t>
@@ -98,49 +128,22 @@
     <t>kdoas</t>
   </si>
   <si>
-    <t>Slots</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>dsad</t>
-  </si>
-  <si>
-    <t>sadd</t>
-  </si>
-  <si>
-    <t>dasdsa</t>
-  </si>
-  <si>
-    <t>dsadas</t>
-  </si>
-  <si>
-    <t>adsa</t>
-  </si>
-  <si>
-    <t>Committee Slots</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>ARC</t>
-  </si>
-  <si>
-    <t>dmaspdpsa</t>
-  </si>
-  <si>
-    <t>Visibility</t>
-  </si>
-  <si>
-    <t>campyy</t>
-  </si>
-  <si>
-    <t>campzzz</t>
+    <t>campz</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>asdasipdjsapijipASJPIAFP</t>
+  </si>
+  <si>
+    <t>yuu</t>
+  </si>
+  <si>
+    <t>wueqe</t>
+  </si>
+  <si>
+    <t>NTU</t>
   </si>
 </sst>
 </file>
@@ -185,20 +188,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,6 +212,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -482,324 +484,325 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="8.7265625"/>
-    <col min="2" max="2" customWidth="true" style="2" width="30.54296875"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" style="2" width="11.0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="18.7265625"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="21.7265625"/>
-    <col min="7" max="9" style="2" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="10.26953125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="12.6328125"/>
-    <col min="12" max="16384" style="2" width="8.7265625"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="30.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2">
         <v>45148</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>45151</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>45147</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1">
         <v>90</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4</v>
-      </c>
-      <c r="L2" s="2" t="b">
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3">
         <v>45149</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>45152</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="3">
         <v>45144</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1">
+        <v>90</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="2">
-        <v>90</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="2">
-        <v>4</v>
-      </c>
-      <c r="L3" s="2" t="b">
+      <c r="L3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3">
         <v>45150</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>45153</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="3">
         <v>45143</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>90</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2">
-        <v>90</v>
-      </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="b">
+      <c r="L4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3">
         <v>45152</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>45155</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="3">
         <v>45142</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2">
+      <c r="G5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="1">
         <v>90</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>10</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="2">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2" t="b">
+      <c r="J5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="1">
+        <v>5</v>
+      </c>
+      <c r="L5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3">
+        <v>36382</v>
+      </c>
+      <c r="D6" s="3">
+        <v>36385</v>
+      </c>
+      <c r="E6" s="3">
+        <v>36411</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
-        <v>45155</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45158</v>
-      </c>
-      <c r="E6" s="1">
-        <v>45150</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="2">
-        <v>90</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="2">
-        <v>4</v>
-      </c>
-      <c r="L6" s="2" t="b">
+      <c r="J6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
+      <c r="A7" s="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="3">
-        <v>36382</v>
+        <v>45148</v>
       </c>
       <c r="D7" s="3">
-        <v>36385</v>
+        <v>45149</v>
       </c>
       <c r="E7" s="3">
-        <v>36411</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="2">
-        <v>90</v>
-      </c>
-      <c r="I7" s="2">
+        <v>45146</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="2">
-        <v>4</v>
-      </c>
-      <c r="L7" s="2" t="b">
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45146</v>
+      </c>
+      <c r="D8" s="3">
+        <v>45146</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45151</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="1">
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="8" t="n">
-        <v>45147.0</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>45156.0</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>45148.0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="2">
-        <v>12</v>
-      </c>
-      <c r="I8" s="2">
-        <v>10</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>2</v>
       </c>
-      <c r="L8" s="2" t="b">
-        <v>1</v>
+      <c r="L8" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -489,16 +489,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" style="1" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.54296875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.7265625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="30.26953125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.7265625"/>
+    <col min="7" max="9" style="1" width="8.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.6328125"/>
+    <col min="12" max="16384" style="1" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -561,11 +561,11 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>90</v>
-      </c>
-      <c r="I2" s="1">
-        <v>10</v>
+      <c r="H2" s="1" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>9.0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -599,11 +599,11 @@
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1">
-        <v>90</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
+      <c r="H3" s="1" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>10.0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -713,11 +713,11 @@
       <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1">
-        <v>90</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10</v>
+      <c r="H6" s="1" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>10.0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
@@ -751,11 +751,11 @@
       <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
+      <c r="H7" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>10.0</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
@@ -789,11 +789,11 @@
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1">
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
+      <c r="H8" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>10.0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48414F36-FEE0-4EC8-AA1C-2A108A4EAA5B}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22A9E6F5-4CAA-41D0-8C82-A5DDEDE038AF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>NTU</t>
+  </si>
+  <si>
+    <t>campa</t>
+  </si>
+  <si>
+    <t>campb</t>
+  </si>
+  <si>
+    <t>campc</t>
   </si>
 </sst>
 </file>
@@ -481,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -774,14 +783,14 @@
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="3">
-        <v>45146</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45146</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45151</v>
+      <c r="C8" s="2">
+        <v>45148</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45152</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45145</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -803,6 +812,120 @@
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45147</v>
+      </c>
+      <c r="D9" s="3">
+        <v>45151</v>
+      </c>
+      <c r="E9" s="3">
+        <v>45146</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45146</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45148</v>
+      </c>
+      <c r="E10" s="3">
+        <v>45145</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+      <c r="L10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45158</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45161</v>
+      </c>
+      <c r="E11" s="3">
+        <v>45156</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
+      <c r="L11" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -144,6 +144,24 @@
   </si>
   <si>
     <t>NTU</t>
+  </si>
+  <si>
+    <t>OOPs</t>
+  </si>
+  <si>
+    <t>Your MOMS' HOUSE</t>
+  </si>
+  <si>
+    <t>rampant sex</t>
+  </si>
+  <si>
+    <t>OOPsy</t>
+  </si>
+  <si>
+    <t>your mums house</t>
+  </si>
+  <si>
+    <t>lololol</t>
   </si>
 </sst>
 </file>
@@ -188,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -197,6 +215,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -600,7 +620,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>90.0</v>
+        <v>89.0</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>10.0</v>
@@ -803,6 +823,82 @@
       </c>
       <c r="L8" s="1" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="1">
+        <v>11.0</v>
+      </c>
+      <c r="B9" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="C9" t="n" s="4">
+        <v>45286.0</v>
+      </c>
+      <c r="D9" t="n" s="4">
+        <v>45290.0</v>
+      </c>
+      <c r="E9" t="n" s="4">
+        <v>45285.0</v>
+      </c>
+      <c r="F9" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="H9" t="n" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="I9" t="n" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="J9" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="K9" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L9" t="b" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="1">
+        <v>12.0</v>
+      </c>
+      <c r="B10" t="s" s="1">
+        <v>39</v>
+      </c>
+      <c r="C10" t="n" s="5">
+        <v>45286.0</v>
+      </c>
+      <c r="D10" t="n" s="5">
+        <v>45290.0</v>
+      </c>
+      <c r="E10" t="n" s="5">
+        <v>45285.0</v>
+      </c>
+      <c r="F10" t="s" s="1">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s" s="1">
+        <v>40</v>
+      </c>
+      <c r="H10" t="n" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="I10" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="s" s="1">
+        <v>41</v>
+      </c>
+      <c r="K10" t="n" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L10" t="b" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -848,7 +848,7 @@
         <v>37</v>
       </c>
       <c r="H9" t="n" s="1">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
       <c r="I9" t="n" s="1">
         <v>10.0</v>
@@ -886,7 +886,7 @@
         <v>40</v>
       </c>
       <c r="H10" t="n" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="I10" t="n" s="1">
         <v>1.0</v>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/CAMs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48414F36-FEE0-4EC8-AA1C-2A108A4EAA5B}"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,8 +215,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -232,10 +230,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -504,21 +498,21 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="1" width="8.7265625"/>
-    <col min="2" max="2" customWidth="true" style="1" width="30.54296875"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.0"/>
-    <col min="4" max="4" customWidth="true" style="1" width="14.7265625"/>
-    <col min="5" max="5" customWidth="true" style="1" width="30.26953125"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.7265625"/>
-    <col min="7" max="9" style="1" width="8.7265625"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.6328125"/>
-    <col min="12" max="16384" style="1" width="8.7265625"/>
+    <col min="1" max="1" width="8.7265625" style="1"/>
+    <col min="2" max="2" width="30.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="8.7265625" style="1"/>
+    <col min="10" max="10" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -581,11 +575,11 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>9.0</v>
+      <c r="H2" s="1">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -619,11 +613,11 @@
       <c r="G3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>10.0</v>
+      <c r="H3" s="1">
+        <v>89</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -733,11 +727,11 @@
       <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>10.0</v>
+      <c r="H6" s="1">
+        <v>89</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
@@ -771,11 +765,11 @@
       <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>10.0</v>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>32</v>
@@ -809,11 +803,11 @@
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>10.0</v>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
@@ -825,79 +819,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="B9" t="s" s="1">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="n" s="4">
-        <v>45286.0</v>
-      </c>
-      <c r="D9" t="n" s="4">
-        <v>45290.0</v>
-      </c>
-      <c r="E9" t="n" s="4">
-        <v>45285.0</v>
-      </c>
-      <c r="F9" t="s" s="1">
+      <c r="C9" s="2">
+        <v>45286</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45290</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45285</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s" s="1">
+      <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H9" t="n" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="I9" t="n" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="J9" t="s" s="1">
+      <c r="H9" s="1">
+        <v>11</v>
+      </c>
+      <c r="I9" s="1">
+        <v>9</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L9" t="b" s="1">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="B10" t="s" s="1">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="n" s="5">
-        <v>45286.0</v>
-      </c>
-      <c r="D10" t="n" s="5">
-        <v>45290.0</v>
-      </c>
-      <c r="E10" t="n" s="5">
-        <v>45285.0</v>
-      </c>
-      <c r="F10" t="s" s="1">
+      <c r="C10" s="2">
+        <v>45286</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45290</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45285</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s" s="1">
+      <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="n" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="I10" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="J10" t="s" s="1">
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K10" t="n" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L10" t="b" s="1">
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -503,16 +503,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="30.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.26953125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7265625" style="1"/>
-    <col min="10" max="10" width="10.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" style="1" width="8.7265625"/>
+    <col min="2" max="2" customWidth="true" style="1" width="30.54296875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="11.0"/>
+    <col min="4" max="4" customWidth="true" style="1" width="14.7265625"/>
+    <col min="5" max="5" customWidth="true" style="1" width="30.26953125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.7265625"/>
+    <col min="7" max="9" style="1" width="8.7265625"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="10.26953125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="12.6328125"/>
+    <col min="12" max="16384" style="1" width="8.7265625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -841,11 +841,11 @@
       <c r="G9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="1">
-        <v>11</v>
-      </c>
-      <c r="I9" s="1">
-        <v>9</v>
+      <c r="H9" s="1" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>9.0</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>38</v>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -575,11 +575,11 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>89</v>
-      </c>
-      <c r="I2" s="1">
-        <v>9</v>
+      <c r="H2" s="1" t="n">
+        <v>88.0</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>17</v>
@@ -803,11 +803,11 @@
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>10</v>
+      <c r="H8" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>8.0</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>34</v>
@@ -879,11 +879,11 @@
       <c r="G10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="1">
-        <v>5</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1</v>
+      <c r="H10" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>-2.0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac8001eaf239fe7a/Documents/NetBeansProjects/SC2002-CAMSV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48414F36-FEE0-4EC8-AA1C-2A108A4EAA5B}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{E5A21032-4AA7-4669-B59C-E86C3DA62B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59270D61-8F68-4AA9-9490-7A318F1B4CC0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Visibility</t>
   </si>
   <si>
-    <t>campy</t>
-  </si>
-  <si>
     <t>ADM</t>
   </si>
   <si>
@@ -86,82 +83,49 @@
     <t>SCSE</t>
   </si>
   <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>campyy</t>
-  </si>
-  <si>
     <t>ADM Camp</t>
   </si>
   <si>
-    <t>dsad</t>
-  </si>
-  <si>
     <t>EEE Camp</t>
   </si>
   <si>
     <t>EEE</t>
   </si>
   <si>
-    <t>sadd</t>
-  </si>
-  <si>
-    <t>adsa</t>
-  </si>
-  <si>
     <t>NBS Camp</t>
   </si>
   <si>
     <t>NBS</t>
   </si>
   <si>
-    <t>dasdsa</t>
-  </si>
-  <si>
-    <t>sda</t>
-  </si>
-  <si>
-    <t>fds</t>
-  </si>
-  <si>
-    <t>kdoas</t>
-  </si>
-  <si>
-    <t>campz</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>asdasipdjsapijipASJPIAFP</t>
-  </si>
-  <si>
-    <t>yuu</t>
-  </si>
-  <si>
-    <t>wueqe</t>
-  </si>
-  <si>
-    <t>NTU</t>
-  </si>
-  <si>
-    <t>OOPs</t>
-  </si>
-  <si>
-    <t>Your MOMS' HOUSE</t>
-  </si>
-  <si>
-    <t>rampant sex</t>
-  </si>
-  <si>
-    <t>OOPsy</t>
-  </si>
-  <si>
-    <t>your mums house</t>
-  </si>
-  <si>
-    <t>lololol</t>
+    <t>ARC Level 1</t>
+  </si>
+  <si>
+    <t>Hive</t>
+  </si>
+  <si>
+    <t>Soccer Field</t>
+  </si>
+  <si>
+    <t>Orientation Camp</t>
+  </si>
+  <si>
+    <t>School of ADM</t>
+  </si>
+  <si>
+    <t>Senior Camp</t>
+  </si>
+  <si>
+    <t>Outdoor Camp</t>
+  </si>
+  <si>
+    <t>CampX</t>
+  </si>
+  <si>
+    <t>Arc Level 3</t>
+  </si>
+  <si>
+    <t>Bonding with friends</t>
   </si>
 </sst>
 </file>
@@ -206,15 +170,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,31 +525,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3">
+        <v>45270</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45273</v>
+      </c>
+      <c r="E2" s="3">
+        <v>45269</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>45148</v>
-      </c>
-      <c r="D2" s="2">
-        <v>45151</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45147</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>8.0</v>
+        <v>20</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -596,31 +563,31 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3">
-        <v>45149</v>
-      </c>
-      <c r="D3" s="3">
-        <v>45152</v>
-      </c>
-      <c r="E3" s="3">
-        <v>45144</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45271</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45274</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45266</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="1">
-        <v>89</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1.0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
@@ -634,31 +601,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3">
-        <v>45150</v>
-      </c>
-      <c r="D4" s="3">
-        <v>45153</v>
-      </c>
-      <c r="E4" s="3">
-        <v>45143</v>
+        <v>16</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45272</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45275</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45265</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="H4" s="1">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1">
         <v>3</v>
@@ -672,31 +639,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="3">
-        <v>45152</v>
-      </c>
-      <c r="D5" s="3">
-        <v>45155</v>
-      </c>
-      <c r="E5" s="3">
-        <v>45142</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45274</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45277</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45264</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="H5" s="1">
-        <v>90</v>
-      </c>
-      <c r="I5" s="1">
-        <v>10</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
@@ -707,191 +674,39 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="3">
-        <v>36382</v>
-      </c>
-      <c r="D6" s="3">
-        <v>36385</v>
-      </c>
-      <c r="E6" s="3">
-        <v>36411</v>
+      <c r="C6" s="4">
+        <v>45270</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45274</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45268</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="1">
-        <v>89</v>
-      </c>
-      <c r="I6" s="1">
-        <v>10</v>
+      <c r="H6" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>1.0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45148</v>
-      </c>
-      <c r="D7" s="3">
-        <v>45149</v>
-      </c>
-      <c r="E7" s="3">
-        <v>45146</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>10</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
-      <c r="L7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45146</v>
-      </c>
-      <c r="D8" s="3">
-        <v>45146</v>
-      </c>
-      <c r="E8" s="3">
-        <v>45151</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2</v>
-      </c>
-      <c r="L8" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="2">
-        <v>45286</v>
-      </c>
-      <c r="D9" s="2">
-        <v>45290</v>
-      </c>
-      <c r="E9" s="2">
-        <v>45285</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="I9" s="1" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="2">
-        <v>45286</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45290</v>
-      </c>
-      <c r="E10" s="2">
-        <v>45285</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="1" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="I10" s="1" t="n">
-        <v>-2.0</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
-      <c r="L10" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/camp_list.xlsx
+++ b/camp_list.xlsx
@@ -880,10 +880,10 @@
         <v>40</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>-2.0</v>
+        <v>-3.0</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>41</v>
